--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4648,7 +4648,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4944,7 +4944,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -8453,7 +8453,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10331,7 +10331,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11903,7 +11903,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -13011,7 +13011,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13215,7 +13215,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -13591,7 +13591,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -13964,7 +13964,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -15726,7 +15726,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -16662,7 +16662,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>3,232</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -18754,7 +18754,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -18850,7 +18850,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -19474,7 +19474,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -19888,7 +19888,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -20360,7 +20360,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -21004,7 +21004,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21556,7 +21556,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
@@ -67330,7 +67330,7 @@
       </c>
       <c r="O2127" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2127" t="inlineStr">
@@ -67482,7 +67482,7 @@
       <c r="N2131" t="inlineStr"/>
       <c r="O2131" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2131" t="inlineStr">
@@ -67546,7 +67546,7 @@
       <c r="N2133" t="inlineStr"/>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -4648,7 +4648,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -6760,7 +6760,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -9443,7 +9443,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -10059,7 +10059,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11543,7 +11543,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -11903,7 +11903,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -12911,7 +12911,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -13011,7 +13011,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -13215,7 +13215,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -13591,7 +13591,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -13964,7 +13964,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>3923.8</t>
+          <t>3,924</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -14512,7 +14512,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -15726,7 +15726,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -16662,12 +16662,12 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>3,232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -17839,7 +17839,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -18457,7 +18457,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -18754,7 +18754,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -18946,7 +18946,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -19286,7 +19286,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -19654,7 +19654,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -20086,7 +20086,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
@@ -20360,7 +20360,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -20555,7 +20555,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21500,7 +21500,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -21556,7 +21556,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
@@ -67252,7 +67252,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -67514,7 +67514,7 @@
       <c r="N2132" t="inlineStr"/>
       <c r="O2132" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2132" t="inlineStr">
@@ -67546,7 +67546,7 @@
       <c r="N2133" t="inlineStr"/>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -67674,7 +67674,7 @@
       <c r="N2137" t="inlineStr"/>
       <c r="O2137" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2137" t="inlineStr">
@@ -67710,7 +67710,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2348,7 +2348,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4648,7 +4648,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4748,12 +4748,12 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5044,7 +5044,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -8453,7 +8453,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -9443,7 +9443,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10059,7 +10059,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11903,7 +11903,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -13011,7 +13011,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13215,7 +13215,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -14512,7 +14512,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -16662,7 +16662,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>3,232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -16819,7 +16819,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -17643,7 +17643,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -17839,7 +17839,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -19382,7 +19382,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
@@ -20264,7 +20264,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -21004,7 +21004,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21408,7 +21408,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -21561,7 +21561,7 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>4.50%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr"/>
@@ -67386,7 +67386,7 @@
       <c r="N2128" t="inlineStr"/>
       <c r="O2128" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2128" t="inlineStr">
@@ -67482,7 +67482,7 @@
       <c r="N2131" t="inlineStr"/>
       <c r="O2131" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2131" t="inlineStr">
@@ -67514,7 +67514,7 @@
       <c r="N2132" t="inlineStr"/>
       <c r="O2132" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2132" t="inlineStr">
@@ -67674,7 +67674,7 @@
       <c r="N2137" t="inlineStr"/>
       <c r="O2137" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2137" t="inlineStr">
@@ -67710,7 +67710,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2348,7 +2348,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4748,12 +4748,12 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -5044,7 +5044,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10331,7 +10331,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -11543,7 +11543,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -11631,7 +11631,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -11903,7 +11903,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -12251,7 +12251,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12911,7 +12911,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -13011,7 +13011,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -13591,7 +13591,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -16819,7 +16819,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1400.00</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18369,7 +18369,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -19654,7 +19654,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -19888,7 +19888,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -20264,7 +20264,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21500,7 +21500,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -21561,7 +21561,7 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.50%</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr"/>
@@ -67386,7 +67386,7 @@
       <c r="N2128" t="inlineStr"/>
       <c r="O2128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2128" t="inlineStr">
@@ -67514,7 +67514,7 @@
       <c r="N2132" t="inlineStr"/>
       <c r="O2132" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2132" t="inlineStr">
@@ -67546,7 +67546,7 @@
       <c r="N2133" t="inlineStr"/>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -67583,7 +67583,7 @@
       </c>
       <c r="P2134" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q2134" t="inlineStr"/>
@@ -67674,7 +67674,7 @@
       <c r="N2137" t="inlineStr"/>
       <c r="O2137" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2137" t="inlineStr">
@@ -67710,7 +67710,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4944,7 +4944,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5044,7 +5044,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6760,7 +6760,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7575,7 +7575,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -7885,12 +7885,12 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1520.00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11543,7 +11543,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -11979,7 +11979,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -12147,7 +12147,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -13011,7 +13011,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -13215,7 +13215,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -14336,7 +14336,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -14512,12 +14512,12 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr"/>
@@ -14710,7 +14710,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -15726,7 +15726,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -16123,7 +16123,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16667,7 +16667,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -17738,12 +17738,12 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>1400.00</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -17839,7 +17839,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -18369,7 +18369,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -19382,7 +19382,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -19566,7 +19566,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -19888,7 +19888,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -20555,7 +20555,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -21004,7 +21004,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21408,7 +21408,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -21500,7 +21500,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -21541,18 +21541,54 @@
     </row>
     <row r="223">
       <c r="A223" t="inlineStr"/>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>250815</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>728-20</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>태승빌딩</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>야채과일</t>
+        </is>
+      </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>170,000</t>
+        </is>
+      </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
@@ -21561,183 +21597,604 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>4.50%</t>
-        </is>
-      </c>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="inlineStr"/>
-      <c r="T223" t="inlineStr"/>
-      <c r="U223" t="inlineStr"/>
-      <c r="V223" t="inlineStr"/>
+          <t>4.90%</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>층고4.8m, 최근 메가커피가 권리1억준다했는데 청과가 1년에 1억번다고 안나간다고... 바로옆건물 태승부동산 사장님 건물
+도보3-4분거리 주차장부지있음(부평동743-11 26평 매매시 지분으로 거래예정)</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>소유자</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>010-8869-5928</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>250815</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>728-20</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>태승빌딩</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>뷰티샵</t>
+        </is>
+      </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
       <c r="N224" t="inlineStr"/>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="inlineStr"/>
-      <c r="T224" t="inlineStr"/>
-      <c r="U224" t="inlineStr"/>
-      <c r="V224" t="inlineStr"/>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>4.90%</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>4.12%</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>층고4.8m, 바로옆건물 태승부동산 사장님 건물, 도보3-4분거리 주차장부지있음(부평동743-11 26평 매매시 지분으로 거래예정)</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>소유자</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>010-8869-5928</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>250815</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>728-20</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>태승빌딩</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
       <c r="N225" t="inlineStr"/>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>4.90%</t>
+        </is>
+      </c>
       <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="inlineStr"/>
-      <c r="T225" t="inlineStr"/>
-      <c r="U225" t="inlineStr"/>
-      <c r="V225" t="inlineStr"/>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>바로옆건물 태승부동산 사장님 건물, 도보3-4분거리 주차장부지있음(부평동743-11 26평 매매시 지분으로 거래예정)</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>소유자</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>010-8869-5928</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>250815</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>728-20</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>태승빌딩</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
       <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>4.90%</t>
+        </is>
+      </c>
       <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="inlineStr"/>
-      <c r="T226" t="inlineStr"/>
-      <c r="U226" t="inlineStr"/>
-      <c r="V226" t="inlineStr"/>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>바로옆건물 태승부동산 사장님 건물, 도보3-4분거리 주차장부지있음(부평동743-11 26평 매매시 지분으로 거래예정)</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>소유자</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>010-8869-5928</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr"/>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>250815</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>728-20</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>태승빌딩</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
       <c r="N227" t="inlineStr"/>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>4.90%</t>
+        </is>
+      </c>
       <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="inlineStr"/>
-      <c r="T227" t="inlineStr"/>
-      <c r="U227" t="inlineStr"/>
-      <c r="V227" t="inlineStr"/>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>바로옆건물 태승부동산 사장님 건물, 도보3-4분거리 주차장부지있음(부평동743-11 26평 매매시 지분으로 거래예정)</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>소유자</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>010-8869-5928</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>250815</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>728-20</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>태승빌딩</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>공실</t>
+        </is>
+      </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
       <c r="N228" t="inlineStr"/>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="inlineStr"/>
-      <c r="T228" t="inlineStr"/>
-      <c r="U228" t="inlineStr"/>
-      <c r="V228" t="inlineStr"/>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>4.90%</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>4.54%</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>바로옆건물 태승부동산 사장님 건물, 도보3-4분거리 주차장부지있음(부평동743-11 26평 매매시 지분으로 거래예정)</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>소유자</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>010-8869-5928</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>250815</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>728-20</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>태승빌딩</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
       <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>4.90%</t>
+        </is>
+      </c>
       <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="inlineStr"/>
-      <c r="T229" t="inlineStr"/>
-      <c r="U229" t="inlineStr"/>
-      <c r="V229" t="inlineStr"/>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>바로옆건물 태승부동산 사장님 건물, 도보3-4분거리 주차장부지있음(부평동743-11 26평 매매시 지분으로 거래예정)</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>소유자</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>010-8869-5928</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr"/>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>250815</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>728-20</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>태승빌딩</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
       <c r="N230" t="inlineStr"/>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>4.90%</t>
+        </is>
+      </c>
       <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="inlineStr"/>
-      <c r="T230" t="inlineStr"/>
-      <c r="U230" t="inlineStr"/>
-      <c r="V230" t="inlineStr"/>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>바로옆건물 태승부동산 사장님 건물, 도보3-4분거리 주차장부지있음(부평동743-11 26평 매매시 지분으로 거래예정)</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>소유자</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>010-8869-5928</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
@@ -21754,8 +22211,16 @@
       <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr"/>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>4.50%</t>
+        </is>
+      </c>
       <c r="Q231" t="inlineStr"/>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="inlineStr"/>
@@ -67252,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -67482,7 +67947,7 @@
       <c r="N2131" t="inlineStr"/>
       <c r="O2131" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2131" t="inlineStr">
@@ -67514,7 +67979,7 @@
       <c r="N2132" t="inlineStr"/>
       <c r="O2132" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2132" t="inlineStr">
@@ -67546,7 +68011,7 @@
       <c r="N2133" t="inlineStr"/>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -67583,7 +68048,7 @@
       </c>
       <c r="P2134" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="Q2134" t="inlineStr"/>
@@ -67674,7 +68139,7 @@
       <c r="N2137" t="inlineStr"/>
       <c r="O2137" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2137" t="inlineStr">
@@ -67710,7 +68175,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4944,7 +4944,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
@@ -8453,7 +8453,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9443,7 +9443,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10700,12 +10700,12 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>1520.00</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11631,7 +11631,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12147,7 +12147,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -12820,7 +12820,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>4.50%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -13215,7 +13215,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -13969,7 +13969,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>4.50%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
@@ -14239,12 +14239,12 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>1119.4</t>
+          <t>1119.40</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr"/>
@@ -14710,7 +14710,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -16123,7 +16123,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -16759,7 +16759,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17839,7 +17839,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -18457,7 +18457,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
@@ -19474,7 +19474,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -20086,7 +20086,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21917,7 +21917,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -22005,7 +22005,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -22213,7 +22213,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
@@ -67795,7 +67795,7 @@
       </c>
       <c r="O2127" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2127" t="inlineStr">
@@ -67851,7 +67851,7 @@
       <c r="N2128" t="inlineStr"/>
       <c r="O2128" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2128" t="inlineStr">
@@ -68011,7 +68011,7 @@
       <c r="N2133" t="inlineStr"/>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4944,7 +4944,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9443,7 +9443,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11543,7 +11543,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -11631,7 +11631,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -11903,7 +11903,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -12147,7 +12147,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12820,7 +12820,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.50%</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -12911,7 +12911,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -13011,7 +13011,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -13591,12 +13591,12 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -13969,7 +13969,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.50%</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>1119.40</t>
+          <t>1119.4</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -14336,7 +14336,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -14710,7 +14710,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -16303,7 +16303,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16672,7 +16672,7 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -16819,12 +16819,12 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr"/>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -17236,7 +17236,7 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -18457,7 +18457,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
@@ -19474,7 +19474,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -19888,7 +19888,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -20812,7 +20812,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21408,7 +21408,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -21592,7 +21592,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
@@ -21765,7 +21765,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -22005,7 +22005,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -22085,7 +22085,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -22161,7 +22161,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -22213,7 +22213,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
@@ -67717,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -67851,7 +67851,7 @@
       <c r="N2128" t="inlineStr"/>
       <c r="O2128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2128" t="inlineStr">
@@ -67915,7 +67915,7 @@
       <c r="N2130" t="inlineStr"/>
       <c r="O2130" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2130" t="inlineStr">
@@ -67947,7 +67947,7 @@
       <c r="N2131" t="inlineStr"/>
       <c r="O2131" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2131" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="N2134" t="inlineStr"/>
       <c r="O2134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2134" t="inlineStr">
@@ -68107,7 +68107,7 @@
       <c r="N2136" t="inlineStr"/>
       <c r="O2136" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2136" t="inlineStr">
@@ -68139,7 +68139,7 @@
       <c r="N2137" t="inlineStr"/>
       <c r="O2137" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2137" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2138"/>
+  <dimension ref="A1:V2139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3294,7 +3294,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -7575,7 +7575,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10059,7 +10059,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12251,7 +12251,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -12911,7 +12911,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -13596,7 +13596,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -14336,7 +14336,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -14512,7 +14512,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -15726,7 +15726,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16667,12 +16667,12 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr"/>
@@ -17231,12 +17231,12 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -18369,7 +18369,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -18754,7 +18754,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -19566,7 +19566,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -19654,7 +19654,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -19888,7 +19888,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -20086,7 +20086,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
@@ -20264,7 +20264,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -20457,7 +20457,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -20555,7 +20555,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -20812,7 +20812,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21408,7 +21408,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -21685,7 +21685,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
@@ -21765,7 +21765,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -21841,7 +21841,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -21917,7 +21917,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -22085,7 +22085,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -67301,11 +67301,7 @@
       <c r="V2109" t="inlineStr"/>
     </row>
     <row r="2110">
-      <c r="A2110" t="inlineStr">
-        <is>
-          <t>ㅁ</t>
-        </is>
-      </c>
+      <c r="A2110" t="inlineStr"/>
       <c r="B2110" t="inlineStr"/>
       <c r="C2110" t="inlineStr"/>
       <c r="D2110" t="inlineStr"/>
@@ -67329,7 +67325,11 @@
       <c r="V2110" t="inlineStr"/>
     </row>
     <row r="2111">
-      <c r="A2111" t="inlineStr"/>
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>ㅁ</t>
+        </is>
+      </c>
       <c r="B2111" t="inlineStr"/>
       <c r="C2111" t="inlineStr"/>
       <c r="D2111" t="inlineStr"/>
@@ -67717,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -67739,119 +67739,95 @@
     <row r="2127">
       <c r="A2127" t="inlineStr"/>
       <c r="B2127" t="inlineStr"/>
-      <c r="C2127" t="inlineStr">
-        <is>
-          <t>만수동</t>
-        </is>
-      </c>
-      <c r="D2127" t="inlineStr">
-        <is>
-          <t>1018</t>
-        </is>
-      </c>
-      <c r="E2127" t="inlineStr">
-        <is>
-          <t>대동상가</t>
-        </is>
-      </c>
-      <c r="F2127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2127" t="inlineStr">
-        <is>
-          <t>203호</t>
-        </is>
-      </c>
-      <c r="H2127" t="inlineStr">
-        <is>
-          <t>완</t>
-        </is>
-      </c>
+      <c r="C2127" t="inlineStr"/>
+      <c r="D2127" t="inlineStr"/>
+      <c r="E2127" t="inlineStr"/>
+      <c r="F2127" t="inlineStr"/>
+      <c r="G2127" t="inlineStr"/>
+      <c r="H2127" t="inlineStr"/>
       <c r="I2127" t="inlineStr"/>
-      <c r="J2127" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="J2127" t="inlineStr"/>
       <c r="K2127" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="L2127" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="M2127" t="inlineStr">
-        <is>
-          <t>43,000</t>
-        </is>
-      </c>
-      <c r="N2127" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O2127" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P2127" t="inlineStr">
-        <is>
-          <t>3.50%</t>
-        </is>
-      </c>
-      <c r="Q2127" t="inlineStr">
-        <is>
-          <t>4.62%</t>
-        </is>
-      </c>
-      <c r="R2127" t="inlineStr">
-        <is>
-          <t>임대인010-3329-5827 sk</t>
-        </is>
-      </c>
-      <c r="S2127" t="inlineStr">
-        <is>
-          <t>동</t>
-        </is>
-      </c>
-      <c r="T2127" t="inlineStr">
-        <is>
-          <t>생</t>
-        </is>
-      </c>
-      <c r="U2127" t="inlineStr">
-        <is>
-          <t>임대인</t>
-        </is>
-      </c>
-      <c r="V2127" t="inlineStr">
-        <is>
-          <t>010-3329-5827</t>
-        </is>
-      </c>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="M2127" t="inlineStr"/>
+      <c r="N2127" t="inlineStr"/>
+      <c r="O2127" t="inlineStr"/>
+      <c r="P2127" t="inlineStr"/>
+      <c r="Q2127" t="inlineStr"/>
+      <c r="R2127" t="inlineStr"/>
+      <c r="S2127" t="inlineStr"/>
+      <c r="T2127" t="inlineStr"/>
+      <c r="U2127" t="inlineStr"/>
+      <c r="V2127" t="inlineStr"/>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr"/>
       <c r="B2128" t="inlineStr"/>
-      <c r="C2128" t="inlineStr"/>
-      <c r="D2128" t="inlineStr"/>
-      <c r="E2128" t="inlineStr"/>
-      <c r="F2128" t="inlineStr"/>
-      <c r="G2128" t="inlineStr"/>
-      <c r="H2128" t="inlineStr"/>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>만수동</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E2128" t="inlineStr">
+        <is>
+          <t>대동상가</t>
+        </is>
+      </c>
+      <c r="F2128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>203호</t>
+        </is>
+      </c>
+      <c r="H2128" t="inlineStr">
+        <is>
+          <t>완</t>
+        </is>
+      </c>
       <c r="I2128" t="inlineStr"/>
-      <c r="J2128" t="inlineStr"/>
-      <c r="K2128" t="inlineStr"/>
-      <c r="L2128" t="inlineStr"/>
-      <c r="M2128" t="inlineStr"/>
-      <c r="N2128" t="inlineStr"/>
+      <c r="J2128" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K2128" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="L2128" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M2128" t="inlineStr">
+        <is>
+          <t>43,000</t>
+        </is>
+      </c>
+      <c r="N2128" t="e">
+        <v>#VALUE!</v>
+      </c>
       <c r="O2128" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2128" t="inlineStr">
@@ -67859,12 +67835,36 @@
           <t>3.50%</t>
         </is>
       </c>
-      <c r="Q2128" t="inlineStr"/>
-      <c r="R2128" t="inlineStr"/>
-      <c r="S2128" t="inlineStr"/>
-      <c r="T2128" t="inlineStr"/>
-      <c r="U2128" t="inlineStr"/>
-      <c r="V2128" t="inlineStr"/>
+      <c r="Q2128" t="inlineStr">
+        <is>
+          <t>4.62%</t>
+        </is>
+      </c>
+      <c r="R2128" t="inlineStr">
+        <is>
+          <t>임대인010-3329-5827 sk</t>
+        </is>
+      </c>
+      <c r="S2128" t="inlineStr">
+        <is>
+          <t>동</t>
+        </is>
+      </c>
+      <c r="T2128" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="U2128" t="inlineStr">
+        <is>
+          <t>임대인</t>
+        </is>
+      </c>
+      <c r="V2128" t="inlineStr">
+        <is>
+          <t>010-3329-5827</t>
+        </is>
+      </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr"/>
@@ -67915,7 +67915,7 @@
       <c r="N2130" t="inlineStr"/>
       <c r="O2130" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2130" t="inlineStr">
@@ -68011,7 +68011,7 @@
       <c r="N2133" t="inlineStr"/>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="N2134" t="inlineStr"/>
       <c r="O2134" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2134" t="inlineStr">
@@ -68107,7 +68107,7 @@
       <c r="N2136" t="inlineStr"/>
       <c r="O2136" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2136" t="inlineStr">
@@ -68139,7 +68139,7 @@
       <c r="N2137" t="inlineStr"/>
       <c r="O2137" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2137" t="inlineStr">
@@ -68155,11 +68155,7 @@
       <c r="V2137" t="inlineStr"/>
     </row>
     <row r="2138">
-      <c r="A2138" t="inlineStr">
-        <is>
-          <t>ㅁ</t>
-        </is>
-      </c>
+      <c r="A2138" t="inlineStr"/>
       <c r="B2138" t="inlineStr"/>
       <c r="C2138" t="inlineStr"/>
       <c r="D2138" t="inlineStr"/>
@@ -68175,7 +68171,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">
@@ -68190,6 +68186,42 @@
       <c r="U2138" t="inlineStr"/>
       <c r="V2138" t="inlineStr"/>
     </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>ㅁ</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr"/>
+      <c r="C2139" t="inlineStr"/>
+      <c r="D2139" t="inlineStr"/>
+      <c r="E2139" t="inlineStr"/>
+      <c r="F2139" t="inlineStr"/>
+      <c r="G2139" t="inlineStr"/>
+      <c r="H2139" t="inlineStr"/>
+      <c r="I2139" t="inlineStr"/>
+      <c r="J2139" t="inlineStr"/>
+      <c r="K2139" t="inlineStr"/>
+      <c r="L2139" t="inlineStr"/>
+      <c r="M2139" t="inlineStr"/>
+      <c r="N2139" t="inlineStr"/>
+      <c r="O2139" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P2139" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+      <c r="Q2139" t="inlineStr"/>
+      <c r="R2139" t="inlineStr"/>
+      <c r="S2139" t="inlineStr"/>
+      <c r="T2139" t="inlineStr"/>
+      <c r="U2139" t="inlineStr"/>
+      <c r="V2139" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3294,7 +3294,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
@@ -4648,7 +4648,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.88%</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6760,7 +6760,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7575,7 +7575,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -8453,7 +8453,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10331,7 +10331,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -13591,7 +13591,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -14336,7 +14336,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -18369,7 +18369,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -18754,7 +18754,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -18850,7 +18850,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -19382,7 +19382,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -19566,7 +19566,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -19654,7 +19654,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -19812,7 +19812,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
@@ -19888,7 +19888,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -20360,7 +20360,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -20812,7 +20812,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21685,7 +21685,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
@@ -67827,7 +67827,7 @@
       </c>
       <c r="O2128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2128" t="inlineStr">
@@ -68171,7 +68171,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.88%</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
@@ -4648,7 +4648,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -6760,7 +6760,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11631,7 +11631,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -12911,7 +12911,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15726,7 +15726,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16303,7 +16303,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -19382,7 +19382,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -19566,7 +19566,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -19654,7 +19654,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -19812,7 +19812,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -21841,7 +21841,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -21917,7 +21917,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -22085,7 +22085,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -22213,7 +22213,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
@@ -67915,7 +67915,7 @@
       <c r="N2130" t="inlineStr"/>
       <c r="O2130" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2130" t="inlineStr">
@@ -67947,7 +67947,7 @@
       <c r="N2131" t="inlineStr"/>
       <c r="O2131" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2131" t="inlineStr">
@@ -68075,7 +68075,7 @@
       <c r="N2135" t="inlineStr"/>
       <c r="O2135" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2135" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2139"/>
+  <dimension ref="A1:V2144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7575,7 +7575,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -8259,7 +8259,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -10059,12 +10059,12 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11543,7 +11543,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -11979,7 +11979,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12251,7 +12251,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr"/>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -13011,7 +13011,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -13880,7 +13880,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -14336,7 +14336,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -14512,7 +14512,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -14710,7 +14710,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -15726,7 +15726,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16303,7 +16303,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -16667,12 +16667,12 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -16819,7 +16819,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -17643,7 +17643,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -17839,7 +17839,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -19474,7 +19474,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -19654,7 +19654,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -20264,7 +20264,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -20360,7 +20360,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -20457,7 +20457,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21765,7 +21765,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -21917,7 +21917,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -22161,7 +22161,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -67325,11 +67325,7 @@
       <c r="V2110" t="inlineStr"/>
     </row>
     <row r="2111">
-      <c r="A2111" t="inlineStr">
-        <is>
-          <t>ㅁ</t>
-        </is>
-      </c>
+      <c r="A2111" t="inlineStr"/>
       <c r="B2111" t="inlineStr"/>
       <c r="C2111" t="inlineStr"/>
       <c r="D2111" t="inlineStr"/>
@@ -67449,7 +67445,11 @@
       <c r="V2115" t="inlineStr"/>
     </row>
     <row r="2116">
-      <c r="A2116" t="inlineStr"/>
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>ㅁ</t>
+        </is>
+      </c>
       <c r="B2116" t="inlineStr"/>
       <c r="C2116" t="inlineStr"/>
       <c r="D2116" t="inlineStr"/>
@@ -67747,21 +67747,19 @@
       <c r="H2127" t="inlineStr"/>
       <c r="I2127" t="inlineStr"/>
       <c r="J2127" t="inlineStr"/>
-      <c r="K2127" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="L2127" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+      <c r="K2127" t="inlineStr"/>
+      <c r="L2127" t="inlineStr"/>
       <c r="M2127" t="inlineStr"/>
-      <c r="N2127" t="inlineStr"/>
+      <c r="N2127" t="e">
+        <v>#DIV/0!</v>
+      </c>
       <c r="O2127" t="inlineStr"/>
       <c r="P2127" t="inlineStr"/>
-      <c r="Q2127" t="inlineStr"/>
+      <c r="Q2127" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
       <c r="R2127" t="inlineStr"/>
       <c r="S2127" t="inlineStr"/>
       <c r="T2127" t="inlineStr"/>
@@ -67771,100 +67769,28 @@
     <row r="2128">
       <c r="A2128" t="inlineStr"/>
       <c r="B2128" t="inlineStr"/>
-      <c r="C2128" t="inlineStr">
-        <is>
-          <t>만수동</t>
-        </is>
-      </c>
-      <c r="D2128" t="inlineStr">
-        <is>
-          <t>1018</t>
-        </is>
-      </c>
-      <c r="E2128" t="inlineStr">
-        <is>
-          <t>대동상가</t>
-        </is>
-      </c>
-      <c r="F2128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2128" t="inlineStr">
-        <is>
-          <t>203호</t>
-        </is>
-      </c>
-      <c r="H2128" t="inlineStr">
-        <is>
-          <t>완</t>
-        </is>
-      </c>
+      <c r="C2128" t="inlineStr"/>
+      <c r="D2128" t="inlineStr"/>
+      <c r="E2128" t="inlineStr"/>
+      <c r="F2128" t="inlineStr"/>
+      <c r="G2128" t="inlineStr"/>
+      <c r="H2128" t="inlineStr"/>
       <c r="I2128" t="inlineStr"/>
-      <c r="J2128" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="K2128" t="inlineStr">
-        <is>
-          <t>4000</t>
-        </is>
-      </c>
-      <c r="L2128" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="M2128" t="inlineStr">
-        <is>
-          <t>43,000</t>
-        </is>
-      </c>
+      <c r="J2128" t="inlineStr"/>
+      <c r="K2128" t="inlineStr"/>
+      <c r="L2128" t="inlineStr"/>
+      <c r="M2128" t="inlineStr"/>
       <c r="N2128" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O2128" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="P2128" t="inlineStr">
-        <is>
-          <t>3.50%</t>
-        </is>
-      </c>
-      <c r="Q2128" t="inlineStr">
-        <is>
-          <t>4.62%</t>
-        </is>
-      </c>
-      <c r="R2128" t="inlineStr">
-        <is>
-          <t>임대인010-3329-5827 sk</t>
-        </is>
-      </c>
-      <c r="S2128" t="inlineStr">
-        <is>
-          <t>동</t>
-        </is>
-      </c>
-      <c r="T2128" t="inlineStr">
-        <is>
-          <t>생</t>
-        </is>
-      </c>
-      <c r="U2128" t="inlineStr">
-        <is>
-          <t>임대인</t>
-        </is>
-      </c>
-      <c r="V2128" t="inlineStr">
-        <is>
-          <t>010-3329-5827</t>
-        </is>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2128" t="inlineStr"/>
+      <c r="P2128" t="inlineStr"/>
+      <c r="Q2128" t="inlineStr"/>
+      <c r="R2128" t="inlineStr"/>
+      <c r="S2128" t="inlineStr"/>
+      <c r="T2128" t="inlineStr"/>
+      <c r="U2128" t="inlineStr"/>
+      <c r="V2128" t="inlineStr"/>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr"/>
@@ -67880,17 +67806,11 @@
       <c r="K2129" t="inlineStr"/>
       <c r="L2129" t="inlineStr"/>
       <c r="M2129" t="inlineStr"/>
-      <c r="N2129" t="inlineStr"/>
-      <c r="O2129" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="P2129" t="inlineStr">
-        <is>
-          <t>3.50%</t>
-        </is>
-      </c>
+      <c r="N2129" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2129" t="inlineStr"/>
+      <c r="P2129" t="inlineStr"/>
       <c r="Q2129" t="inlineStr"/>
       <c r="R2129" t="inlineStr"/>
       <c r="S2129" t="inlineStr"/>
@@ -67912,17 +67832,11 @@
       <c r="K2130" t="inlineStr"/>
       <c r="L2130" t="inlineStr"/>
       <c r="M2130" t="inlineStr"/>
-      <c r="N2130" t="inlineStr"/>
-      <c r="O2130" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P2130" t="inlineStr">
-        <is>
-          <t>3.50%</t>
-        </is>
-      </c>
+      <c r="N2130" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2130" t="inlineStr"/>
+      <c r="P2130" t="inlineStr"/>
       <c r="Q2130" t="inlineStr"/>
       <c r="R2130" t="inlineStr"/>
       <c r="S2130" t="inlineStr"/>
@@ -67944,17 +67858,11 @@
       <c r="K2131" t="inlineStr"/>
       <c r="L2131" t="inlineStr"/>
       <c r="M2131" t="inlineStr"/>
-      <c r="N2131" t="inlineStr"/>
-      <c r="O2131" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P2131" t="inlineStr">
-        <is>
-          <t>3.50%</t>
-        </is>
-      </c>
+      <c r="N2131" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2131" t="inlineStr"/>
+      <c r="P2131" t="inlineStr"/>
       <c r="Q2131" t="inlineStr"/>
       <c r="R2131" t="inlineStr"/>
       <c r="S2131" t="inlineStr"/>
@@ -67976,17 +67884,11 @@
       <c r="K2132" t="inlineStr"/>
       <c r="L2132" t="inlineStr"/>
       <c r="M2132" t="inlineStr"/>
-      <c r="N2132" t="inlineStr"/>
-      <c r="O2132" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="P2132" t="inlineStr">
-        <is>
-          <t>3.50%</t>
-        </is>
-      </c>
+      <c r="N2132" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2132" t="inlineStr"/>
+      <c r="P2132" t="inlineStr"/>
       <c r="Q2132" t="inlineStr"/>
       <c r="R2132" t="inlineStr"/>
       <c r="S2132" t="inlineStr"/>
@@ -67997,21 +67899,63 @@
     <row r="2133">
       <c r="A2133" t="inlineStr"/>
       <c r="B2133" t="inlineStr"/>
-      <c r="C2133" t="inlineStr"/>
-      <c r="D2133" t="inlineStr"/>
-      <c r="E2133" t="inlineStr"/>
-      <c r="F2133" t="inlineStr"/>
-      <c r="G2133" t="inlineStr"/>
-      <c r="H2133" t="inlineStr"/>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>만수동</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E2133" t="inlineStr">
+        <is>
+          <t>대동상가</t>
+        </is>
+      </c>
+      <c r="F2133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2133" t="inlineStr">
+        <is>
+          <t>203호</t>
+        </is>
+      </c>
+      <c r="H2133" t="inlineStr">
+        <is>
+          <t>완</t>
+        </is>
+      </c>
       <c r="I2133" t="inlineStr"/>
-      <c r="J2133" t="inlineStr"/>
-      <c r="K2133" t="inlineStr"/>
-      <c r="L2133" t="inlineStr"/>
-      <c r="M2133" t="inlineStr"/>
-      <c r="N2133" t="inlineStr"/>
+      <c r="J2133" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K2133" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="L2133" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M2133" t="inlineStr">
+        <is>
+          <t>43,000</t>
+        </is>
+      </c>
+      <c r="N2133" t="e">
+        <v>#VALUE!</v>
+      </c>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -68019,12 +67963,36 @@
           <t>3.50%</t>
         </is>
       </c>
-      <c r="Q2133" t="inlineStr"/>
-      <c r="R2133" t="inlineStr"/>
-      <c r="S2133" t="inlineStr"/>
-      <c r="T2133" t="inlineStr"/>
-      <c r="U2133" t="inlineStr"/>
-      <c r="V2133" t="inlineStr"/>
+      <c r="Q2133" t="inlineStr">
+        <is>
+          <t>4.62%</t>
+        </is>
+      </c>
+      <c r="R2133" t="inlineStr">
+        <is>
+          <t>임대인010-3329-5827 sk</t>
+        </is>
+      </c>
+      <c r="S2133" t="inlineStr">
+        <is>
+          <t>동</t>
+        </is>
+      </c>
+      <c r="T2133" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
+      <c r="U2133" t="inlineStr">
+        <is>
+          <t>임대인</t>
+        </is>
+      </c>
+      <c r="V2133" t="inlineStr">
+        <is>
+          <t>010-3329-5827</t>
+        </is>
+      </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr"/>
@@ -68043,7 +68011,7 @@
       <c r="N2134" t="inlineStr"/>
       <c r="O2134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2134" t="inlineStr">
@@ -68075,7 +68043,7 @@
       <c r="N2135" t="inlineStr"/>
       <c r="O2135" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2135" t="inlineStr">
@@ -68139,7 +68107,7 @@
       <c r="N2137" t="inlineStr"/>
       <c r="O2137" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2137" t="inlineStr">
@@ -68187,11 +68155,7 @@
       <c r="V2138" t="inlineStr"/>
     </row>
     <row r="2139">
-      <c r="A2139" t="inlineStr">
-        <is>
-          <t>ㅁ</t>
-        </is>
-      </c>
+      <c r="A2139" t="inlineStr"/>
       <c r="B2139" t="inlineStr"/>
       <c r="C2139" t="inlineStr"/>
       <c r="D2139" t="inlineStr"/>
@@ -68207,7 +68171,7 @@
       <c r="N2139" t="inlineStr"/>
       <c r="O2139" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2139" t="inlineStr">
@@ -68222,6 +68186,170 @@
       <c r="U2139" t="inlineStr"/>
       <c r="V2139" t="inlineStr"/>
     </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr"/>
+      <c r="B2140" t="inlineStr"/>
+      <c r="C2140" t="inlineStr"/>
+      <c r="D2140" t="inlineStr"/>
+      <c r="E2140" t="inlineStr"/>
+      <c r="F2140" t="inlineStr"/>
+      <c r="G2140" t="inlineStr"/>
+      <c r="H2140" t="inlineStr"/>
+      <c r="I2140" t="inlineStr"/>
+      <c r="J2140" t="inlineStr"/>
+      <c r="K2140" t="inlineStr"/>
+      <c r="L2140" t="inlineStr"/>
+      <c r="M2140" t="inlineStr"/>
+      <c r="N2140" t="inlineStr"/>
+      <c r="O2140" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P2140" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+      <c r="Q2140" t="inlineStr"/>
+      <c r="R2140" t="inlineStr"/>
+      <c r="S2140" t="inlineStr"/>
+      <c r="T2140" t="inlineStr"/>
+      <c r="U2140" t="inlineStr"/>
+      <c r="V2140" t="inlineStr"/>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr"/>
+      <c r="B2141" t="inlineStr"/>
+      <c r="C2141" t="inlineStr"/>
+      <c r="D2141" t="inlineStr"/>
+      <c r="E2141" t="inlineStr"/>
+      <c r="F2141" t="inlineStr"/>
+      <c r="G2141" t="inlineStr"/>
+      <c r="H2141" t="inlineStr"/>
+      <c r="I2141" t="inlineStr"/>
+      <c r="J2141" t="inlineStr"/>
+      <c r="K2141" t="inlineStr"/>
+      <c r="L2141" t="inlineStr"/>
+      <c r="M2141" t="inlineStr"/>
+      <c r="N2141" t="inlineStr"/>
+      <c r="O2141" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P2141" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+      <c r="Q2141" t="inlineStr"/>
+      <c r="R2141" t="inlineStr"/>
+      <c r="S2141" t="inlineStr"/>
+      <c r="T2141" t="inlineStr"/>
+      <c r="U2141" t="inlineStr"/>
+      <c r="V2141" t="inlineStr"/>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr"/>
+      <c r="B2142" t="inlineStr"/>
+      <c r="C2142" t="inlineStr"/>
+      <c r="D2142" t="inlineStr"/>
+      <c r="E2142" t="inlineStr"/>
+      <c r="F2142" t="inlineStr"/>
+      <c r="G2142" t="inlineStr"/>
+      <c r="H2142" t="inlineStr"/>
+      <c r="I2142" t="inlineStr"/>
+      <c r="J2142" t="inlineStr"/>
+      <c r="K2142" t="inlineStr"/>
+      <c r="L2142" t="inlineStr"/>
+      <c r="M2142" t="inlineStr"/>
+      <c r="N2142" t="inlineStr"/>
+      <c r="O2142" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P2142" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+      <c r="Q2142" t="inlineStr"/>
+      <c r="R2142" t="inlineStr"/>
+      <c r="S2142" t="inlineStr"/>
+      <c r="T2142" t="inlineStr"/>
+      <c r="U2142" t="inlineStr"/>
+      <c r="V2142" t="inlineStr"/>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr"/>
+      <c r="B2143" t="inlineStr"/>
+      <c r="C2143" t="inlineStr"/>
+      <c r="D2143" t="inlineStr"/>
+      <c r="E2143" t="inlineStr"/>
+      <c r="F2143" t="inlineStr"/>
+      <c r="G2143" t="inlineStr"/>
+      <c r="H2143" t="inlineStr"/>
+      <c r="I2143" t="inlineStr"/>
+      <c r="J2143" t="inlineStr"/>
+      <c r="K2143" t="inlineStr"/>
+      <c r="L2143" t="inlineStr"/>
+      <c r="M2143" t="inlineStr"/>
+      <c r="N2143" t="inlineStr"/>
+      <c r="O2143" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P2143" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+      <c r="Q2143" t="inlineStr"/>
+      <c r="R2143" t="inlineStr"/>
+      <c r="S2143" t="inlineStr"/>
+      <c r="T2143" t="inlineStr"/>
+      <c r="U2143" t="inlineStr"/>
+      <c r="V2143" t="inlineStr"/>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>ㅁ</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr"/>
+      <c r="C2144" t="inlineStr"/>
+      <c r="D2144" t="inlineStr"/>
+      <c r="E2144" t="inlineStr"/>
+      <c r="F2144" t="inlineStr"/>
+      <c r="G2144" t="inlineStr"/>
+      <c r="H2144" t="inlineStr"/>
+      <c r="I2144" t="inlineStr"/>
+      <c r="J2144" t="inlineStr"/>
+      <c r="K2144" t="inlineStr"/>
+      <c r="L2144" t="inlineStr"/>
+      <c r="M2144" t="inlineStr"/>
+      <c r="N2144" t="inlineStr"/>
+      <c r="O2144" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P2144" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+      <c r="Q2144" t="inlineStr"/>
+      <c r="R2144" t="inlineStr"/>
+      <c r="S2144" t="inlineStr"/>
+      <c r="T2144" t="inlineStr"/>
+      <c r="U2144" t="inlineStr"/>
+      <c r="V2144" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2348,7 +2348,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4748,7 +4748,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4944,7 +4944,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5144,12 +5144,12 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -8259,7 +8259,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -8453,7 +8453,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -9443,7 +9443,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -10331,7 +10331,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -10705,12 +10705,12 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
@@ -11543,7 +11543,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -11979,7 +11979,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12251,7 +12251,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12711,12 +12711,12 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr"/>
@@ -12810,7 +12810,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>4002.0</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -12911,7 +12911,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -13011,7 +13011,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -14336,7 +14336,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -14512,7 +14512,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -14710,7 +14710,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16667,12 +16667,12 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -16819,7 +16819,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -17643,7 +17643,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -17839,7 +17839,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -18850,7 +18850,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -19474,7 +19474,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -19654,7 +19654,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -20457,7 +20457,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -20555,7 +20555,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -21004,7 +21004,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21408,7 +21408,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -21765,7 +21765,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -22085,7 +22085,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -22213,7 +22213,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
@@ -67717,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -68011,7 +68011,7 @@
       <c r="N2134" t="inlineStr"/>
       <c r="O2134" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2134" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="N2135" t="inlineStr"/>
       <c r="O2135" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2135" t="inlineStr">
@@ -68139,7 +68139,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">
@@ -68171,7 +68171,7 @@
       <c r="N2139" t="inlineStr"/>
       <c r="O2139" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2139" t="inlineStr">
@@ -68267,7 +68267,7 @@
       <c r="N2142" t="inlineStr"/>
       <c r="O2142" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2142" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3097,12 +3097,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1500.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3294,7 +3294,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4944,7 +4944,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5144,12 +5144,12 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.88%</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9443,7 +9443,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -10705,12 +10705,12 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
@@ -11631,7 +11631,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -12147,7 +12147,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -12810,12 +12810,12 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>4002.0</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -13880,7 +13880,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -14512,7 +14512,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -16303,7 +16303,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -16819,7 +16819,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -17643,12 +17643,12 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -18754,12 +18754,12 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>4.50%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
@@ -20360,7 +20360,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -20457,7 +20457,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -20555,7 +20555,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -20908,7 +20908,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21841,12 +21841,12 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr"/>
@@ -22005,7 +22005,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -67955,7 +67955,7 @@
       </c>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -68011,7 +68011,7 @@
       <c r="N2134" t="inlineStr"/>
       <c r="O2134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2134" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="N2135" t="inlineStr"/>
       <c r="O2135" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2135" t="inlineStr">
@@ -68139,7 +68139,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">
@@ -68171,7 +68171,7 @@
       <c r="N2139" t="inlineStr"/>
       <c r="O2139" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2139" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3097,12 +3097,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1500.00</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3294,7 +3294,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4748,7 +4748,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10331,7 +10331,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11631,7 +11631,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -11979,7 +11979,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -12147,7 +12147,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -12251,7 +12251,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -13591,7 +13591,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -13880,7 +13880,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -15726,12 +15726,12 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -16759,7 +16759,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -17643,12 +17643,12 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -18369,7 +18369,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -18457,7 +18457,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -18754,12 +18754,12 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
@@ -18946,7 +18946,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -19382,7 +19382,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -19474,7 +19474,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -19654,7 +19654,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -19812,7 +19812,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
@@ -19888,7 +19888,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.50%</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
@@ -20360,7 +20360,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -20812,7 +20812,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -20908,7 +20908,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
@@ -21004,7 +21004,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21500,7 +21500,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -21592,7 +21592,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
@@ -21765,7 +21765,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -21841,12 +21841,12 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr"/>
@@ -22085,7 +22085,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -67717,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -67955,7 +67955,7 @@
       </c>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -68011,7 +68011,7 @@
       <c r="N2134" t="inlineStr"/>
       <c r="O2134" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2134" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="N2135" t="inlineStr"/>
       <c r="O2135" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2135" t="inlineStr">
@@ -68075,12 +68075,12 @@
       <c r="N2136" t="inlineStr"/>
       <c r="O2136" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2136" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q2136" t="inlineStr"/>
@@ -68203,7 +68203,7 @@
       <c r="N2140" t="inlineStr"/>
       <c r="O2140" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2140" t="inlineStr">
@@ -68235,7 +68235,7 @@
       <c r="N2141" t="inlineStr"/>
       <c r="O2141" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2141" t="inlineStr">
@@ -68267,7 +68267,7 @@
       <c r="N2142" t="inlineStr"/>
       <c r="O2142" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2142" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5044,7 +5044,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.88%</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -8453,7 +8453,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9443,7 +9443,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10331,7 +10331,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11631,7 +11631,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -12251,7 +12251,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -13011,7 +13011,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -13880,7 +13880,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -13964,7 +13964,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -15726,12 +15726,12 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -16819,7 +16819,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -17443,12 +17443,12 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -18369,7 +18369,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -18457,7 +18457,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -18754,7 +18754,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -18850,7 +18850,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -18946,7 +18946,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -19382,7 +19382,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -19474,7 +19474,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -19654,7 +19654,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -20081,12 +20081,12 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21408,7 +21408,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -21592,7 +21592,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
@@ -21765,7 +21765,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -21841,7 +21841,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -22005,7 +22005,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -67717,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -68080,7 +68080,7 @@
       </c>
       <c r="P2136" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="Q2136" t="inlineStr"/>
@@ -68272,7 +68272,7 @@
       </c>
       <c r="P2142" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q2142" t="inlineStr"/>

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5044,7 +5044,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7575,7 +7575,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11631,7 +11631,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -11979,7 +11979,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -12911,7 +12911,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -13011,7 +13011,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -13964,7 +13964,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -16819,12 +16819,12 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr"/>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17443,12 +17443,12 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
@@ -17643,7 +17643,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -18457,7 +18457,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -18850,7 +18850,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -19474,7 +19474,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -20081,12 +20081,12 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
@@ -20457,7 +20457,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -20555,7 +20555,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21685,7 +21685,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
@@ -21841,7 +21841,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -67717,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -68011,7 +68011,7 @@
       <c r="N2134" t="inlineStr"/>
       <c r="O2134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2134" t="inlineStr">
@@ -68203,7 +68203,7 @@
       <c r="N2140" t="inlineStr"/>
       <c r="O2140" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2140" t="inlineStr">
@@ -68272,7 +68272,7 @@
       </c>
       <c r="P2142" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="Q2142" t="inlineStr"/>

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2624,7 +2624,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4648,7 +4648,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4748,7 +4748,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7575,7 +7575,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -8259,7 +8259,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -8453,7 +8453,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9443,7 +9443,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -11979,7 +11979,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12147,7 +12147,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -12911,7 +12911,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -13509,12 +13509,12 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -13591,7 +13591,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -14710,7 +14710,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -16303,7 +16303,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr"/>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -17643,7 +17643,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -17839,7 +17839,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -18457,7 +18457,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -18754,7 +18754,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -19474,7 +19474,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -19566,7 +19566,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -19812,7 +19812,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>4.50%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
@@ -20360,7 +20360,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -20457,7 +20457,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -20908,7 +20908,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21592,7 +21592,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
@@ -21685,7 +21685,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
@@ -21917,7 +21917,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -67717,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -67955,7 +67955,7 @@
       </c>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="N2135" t="inlineStr"/>
       <c r="O2135" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2135" t="inlineStr">
@@ -68075,7 +68075,7 @@
       <c r="N2136" t="inlineStr"/>
       <c r="O2136" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2136" t="inlineStr">
@@ -68139,7 +68139,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">
@@ -68171,7 +68171,7 @@
       <c r="N2139" t="inlineStr"/>
       <c r="O2139" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2139" t="inlineStr">
@@ -68235,7 +68235,7 @@
       <c r="N2141" t="inlineStr"/>
       <c r="O2141" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2141" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2348,7 +2348,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4648,7 +4648,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4944,7 +4944,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5044,7 +5044,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -6760,7 +6760,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -12147,7 +12147,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -13964,7 +13964,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -14512,7 +14512,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -14710,7 +14710,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16303,7 +16303,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -17231,12 +17231,12 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.50%</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
@@ -20360,7 +20360,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -20908,7 +20908,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21592,7 +21592,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
@@ -21765,7 +21765,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -22161,7 +22161,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -67717,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -68075,7 +68075,7 @@
       <c r="N2136" t="inlineStr"/>
       <c r="O2136" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2136" t="inlineStr">
@@ -68139,7 +68139,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2348,7 +2348,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4648,7 +4648,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4944,7 +4944,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5044,7 +5044,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6760,7 +6760,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -8259,7 +8259,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -13215,7 +13215,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -13880,7 +13880,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -13964,7 +13964,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -14710,7 +14710,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16303,7 +16303,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -17231,12 +17231,12 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -18457,7 +18457,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -19566,7 +19566,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -20081,12 +20081,12 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21408,12 +21408,12 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr"/>
@@ -21500,7 +21500,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -21765,7 +21765,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -68011,7 +68011,7 @@
       <c r="N2134" t="inlineStr"/>
       <c r="O2134" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2134" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="N2135" t="inlineStr"/>
       <c r="O2135" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2135" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4748,7 +4748,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6760,7 +6760,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11543,7 +11543,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -13215,7 +13215,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -13591,7 +13591,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -13880,7 +13880,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -14710,7 +14710,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16303,7 +16303,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -17643,7 +17643,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -18850,7 +18850,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -19566,7 +19566,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -20081,12 +20081,12 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21408,12 +21408,12 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr"/>
@@ -21685,7 +21685,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
@@ -22085,7 +22085,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -22161,7 +22161,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -67955,7 +67955,7 @@
       </c>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -68203,7 +68203,7 @@
       <c r="N2140" t="inlineStr"/>
       <c r="O2140" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2140" t="inlineStr">
@@ -68235,7 +68235,7 @@
       <c r="N2141" t="inlineStr"/>
       <c r="O2141" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2141" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4648,7 +4648,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11543,7 +11543,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -11903,7 +11903,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -17643,7 +17643,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -17839,7 +17839,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -18457,7 +18457,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -18850,7 +18850,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -19286,7 +19286,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -19812,7 +19812,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
@@ -20457,7 +20457,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -20812,7 +20812,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -21004,7 +21004,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -21408,7 +21408,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -21685,7 +21685,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
@@ -21765,7 +21765,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -21841,7 +21841,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -22085,7 +22085,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -22161,7 +22161,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -67955,7 +67955,7 @@
       </c>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="N2135" t="inlineStr"/>
       <c r="O2135" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2135" t="inlineStr">
@@ -68075,7 +68075,7 @@
       <c r="N2136" t="inlineStr"/>
       <c r="O2136" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2136" t="inlineStr">
@@ -68139,7 +68139,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">
@@ -68171,7 +68171,7 @@
       <c r="N2139" t="inlineStr"/>
       <c r="O2139" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2139" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2624,7 +2624,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3294,7 +3294,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.88%</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -6760,7 +6760,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -11903,7 +11903,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12147,7 +12147,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -12251,7 +12251,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -19286,7 +19286,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -20360,7 +20360,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -20457,12 +20457,12 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -21004,7 +21004,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21408,7 +21408,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -21685,7 +21685,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
@@ -21765,7 +21765,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -21841,7 +21841,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -21917,7 +21917,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -22085,7 +22085,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -22161,7 +22161,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -68011,7 +68011,7 @@
       <c r="N2134" t="inlineStr"/>
       <c r="O2134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2134" t="inlineStr">
@@ -68171,7 +68171,7 @@
       <c r="N2139" t="inlineStr"/>
       <c r="O2139" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2139" t="inlineStr">
@@ -68235,7 +68235,7 @@
       <c r="N2141" t="inlineStr"/>
       <c r="O2141" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2141" t="inlineStr">
@@ -68267,7 +68267,7 @@
       <c r="N2142" t="inlineStr"/>
       <c r="O2142" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2142" t="inlineStr">
@@ -68335,7 +68335,7 @@
       <c r="N2144" t="inlineStr"/>
       <c r="O2144" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2144" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2624,7 +2624,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3294,7 +3294,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4844,7 +4844,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7575,7 +7575,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -8259,7 +8259,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12147,7 +12147,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -12251,7 +12251,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -14336,7 +14336,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -14512,7 +14512,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -16759,7 +16759,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -19382,7 +19382,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -19812,7 +19812,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
@@ -19888,7 +19888,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -20360,7 +20360,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -20462,7 +20462,7 @@
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21500,7 +21500,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -21685,7 +21685,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
@@ -22005,7 +22005,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -22161,7 +22161,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -67717,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -67955,7 +67955,7 @@
       </c>
       <c r="O2133" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2133" t="inlineStr">
@@ -68107,7 +68107,7 @@
       <c r="N2137" t="inlineStr"/>
       <c r="O2137" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2137" t="inlineStr">
@@ -68139,7 +68139,7 @@
       <c r="N2138" t="inlineStr"/>
       <c r="O2138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2138" t="inlineStr">
@@ -68171,7 +68171,7 @@
       <c r="N2139" t="inlineStr"/>
       <c r="O2139" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2139" t="inlineStr">
@@ -68203,7 +68203,7 @@
       <c r="N2140" t="inlineStr"/>
       <c r="O2140" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2140" t="inlineStr">
@@ -68267,7 +68267,7 @@
       <c r="N2142" t="inlineStr"/>
       <c r="O2142" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2142" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4748,7 +4748,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7575,7 +7575,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -8259,7 +8259,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -8453,7 +8453,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -9443,7 +9443,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -9959,7 +9959,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -10331,7 +10331,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11543,7 +11543,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -12147,7 +12147,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -12911,7 +12911,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -13215,7 +13215,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -13311,7 +13311,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -13964,7 +13964,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -14336,7 +14336,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -14710,7 +14710,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -18654,7 +18654,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -18946,7 +18946,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -19382,7 +19382,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -19566,7 +19566,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -20086,7 +20086,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -20457,7 +20457,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -20720,7 +20720,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -20908,7 +20908,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21841,7 +21841,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -21917,7 +21917,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -22085,7 +22085,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -22161,7 +22161,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -22213,7 +22213,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
@@ -67717,7 +67717,7 @@
       <c r="N2126" t="inlineStr"/>
       <c r="O2126" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2126" t="inlineStr">
@@ -68011,7 +68011,7 @@
       <c r="N2134" t="inlineStr"/>
       <c r="O2134" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2134" t="inlineStr">
@@ -68203,7 +68203,7 @@
       <c r="N2140" t="inlineStr"/>
       <c r="O2140" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2140" t="inlineStr">
@@ -68267,7 +68267,7 @@
       <c r="N2142" t="inlineStr"/>
       <c r="O2142" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2142" t="inlineStr">
@@ -68335,7 +68335,7 @@
       <c r="N2144" t="inlineStr"/>
       <c r="O2144" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P2144" t="inlineStr">

--- a/data/raw/구분상가매매.xlsx
+++ b/data/raw/구분상가매매.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7276,7 +7276,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -10431,12 +10431,12 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -11543,7 +11543,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -12055,7 +12055,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -12625,7 +12625,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12911,7 +12911,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -13509,7 +13509,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -13964,7 +13964,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -14056,7 +14056,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -14336,7 +14336,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -16123,7 +16123,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -16303,7 +16303,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -16667,7 +16667,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -18369,7 +18369,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -18850,7 +18850,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -18951,7 +18951,7 @@
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -20086,7 +20086,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -20635,7 +20635,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -20812,7 +20812,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -20908,7 +20908,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
@@ -21004,7 +21004,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -21216,7 +21216,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -21320,7 +21320,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -21500,7 +21500,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -21917,7 +21917,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -22161,7 +22161,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -22213,7 +22213,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="N2135" t="inlineStr"/>
       <c r="O2135" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2135" t="inlineStr">
@@ -68080,7 +68080,7 @@
       </c>
       <c r="P2136" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="Q2136" t="inlineStr"/>
@@ -68203,7 +68203,7 @@
       <c r="N2140" t="inlineStr"/>
       <c r="O2140" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2140" t="inlineStr">
@@ -68299,7 +68299,7 @@
       <c r="N2143" t="inlineStr"/>
       <c r="O2143" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P2143" t="inlineStr">
